--- a/src/test/resources/testdata/loginData.xlsx
+++ b/src/test/resources/testdata/loginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\GitProject\HybridFramework_Shubham\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\GitProject\MvnHybridDrivenFrameworkByShubham\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99931322-7B1A-453D-B9EE-F13871EFCAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218DC17B-CB39-41A5-A952-B929A7CDDCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://shubgupta-trials77.orangehrmlive.com/</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>dP3RD1i@Lu</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -62,13 +56,19 @@
   </si>
   <si>
     <t>dP3RD1i@Luer</t>
+  </si>
+  <si>
+    <t>G@mN2eaZ4Q</t>
+  </si>
+  <si>
+    <t>https://shubgpta18-trials77.orangehrmlive.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF757575"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,10 +119,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,15 +407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,24 +424,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -443,13 +449,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -468,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558889EE-7316-43BE-9FB4-ABEB2725AD22}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -492,19 +498,19 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A1B94247-2907-46D4-8E87-4D5BA49F384D}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{790F2F70-C1FA-49CC-8C14-DDA4F3718B67}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{790F2F70-C1FA-49CC-8C14-DDA4F3718B67}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A1B94247-2907-46D4-8E87-4D5BA49F384D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
